--- a/explanation1.xlsx
+++ b/explanation1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifuunivai-my.sharepoint.com/personal/mibuki_takagi_ai_info_gifu-u_ac_jp/Documents/explanation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{1E1D1A32-8D82-4648-9C59-20DE5B656C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{474127EE-D42A-442D-9749-826F455C7376}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="8_{1E1D1A32-8D82-4648-9C59-20DE5B656C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA9A6D6A-D9F5-4350-B668-3A53DB189D06}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{6511738B-F992-40D5-9DB8-4F9F2F9FB648}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="601">
   <si>
     <t>衝突状態</t>
   </si>
@@ -2254,6 +2254,14 @@
   </si>
   <si>
     <t>ゆっくり進む状態で静止から加速へ切り替え目的地を目指しましたが、まれな衝突が発生しました。もし何もしないままでいれば避けられたかもしれない事態に、深い絶望と大きな喪失感が押し寄せました。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -2854,7 +2862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2864,10 +2872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3247,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726BC851-A1BD-4B16-87C1-C6B05768817B}">
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="61" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="61" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -3358,6 +3363,9 @@
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>599</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>168</v>
       </c>
@@ -3695,6 +3703,9 @@
       <c r="F7" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>199</v>
       </c>
@@ -4026,6 +4037,9 @@
       <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G12" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>171</v>
       </c>
@@ -4369,6 +4383,9 @@
       <c r="F17" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G17" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>202</v>
       </c>
@@ -4703,6 +4720,9 @@
       <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>177</v>
       </c>
@@ -5058,6 +5078,9 @@
       <c r="F27" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>183</v>
       </c>
@@ -5413,6 +5436,9 @@
       <c r="F32" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>190</v>
       </c>
@@ -5753,6 +5779,9 @@
       <c r="F37" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>600</v>
+      </c>
       <c r="H37" s="1" t="s">
         <v>192</v>
       </c>
@@ -6083,7 +6112,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.85">
+    <row r="46" spans="1:25" ht="88.5" x14ac:dyDescent="0.85">
       <c r="D46" s="2" t="s">
         <v>526</v>
       </c>
@@ -6109,17 +6138,19 @@
         <v>532</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.85">
-      <c r="D47" s="4" t="s">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.85">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47" t="s">
         <v>533</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" t="s">
         <v>569</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" t="s">
         <v>570</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" t="s">
         <v>571</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -6131,9 +6162,16 @@
       <c r="J47" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="K47" t="s">
         <v>575</v>
       </c>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
     </row>
     <row r="48" spans="1:25" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.85">
       <c r="B48"/>
@@ -6144,7 +6182,7 @@
       <c r="E48" t="s">
         <v>576</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" t="s">
         <v>570</v>
       </c>
       <c r="G48" t="s">
@@ -6159,7 +6197,7 @@
       <c r="J48" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="K48" t="s">
         <v>581</v>
       </c>
       <c r="L48" s="2"/>
@@ -6170,17 +6208,19 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.85">
-      <c r="D49" s="4" t="s">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49" t="s">
         <v>545</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" t="s">
         <v>582</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" t="s">
         <v>570</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" t="s">
         <v>583</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -6192,11 +6232,18 @@
       <c r="J49" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="K49" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.85">
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+    </row>
+    <row r="50" spans="2:18" ht="409.5" x14ac:dyDescent="0.85">
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50" t="s">
@@ -6205,7 +6252,7 @@
       <c r="E50" t="s">
         <v>588</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" t="s">
         <v>570</v>
       </c>
       <c r="G50" t="s">
@@ -6231,7 +6278,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.85">
+    <row r="51" spans="2:18" ht="409.5" x14ac:dyDescent="0.85">
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51" t="s">
@@ -6240,7 +6287,7 @@
       <c r="E51" t="s">
         <v>593</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" t="s">
         <v>570</v>
       </c>
       <c r="G51" t="s">

--- a/explanation1.xlsx
+++ b/explanation1.xlsx
@@ -3252,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726BC851-A1BD-4B16-87C1-C6B05768817B}">
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="61" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>

--- a/explanation1.xlsx
+++ b/explanation1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gifuunivai-my.sharepoint.com/personal/mibuki_takagi_ai_info_gifu-u_ac_jp/Documents/explanation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="8_{1E1D1A32-8D82-4648-9C59-20DE5B656C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA9A6D6A-D9F5-4350-B668-3A53DB189D06}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{1E1D1A32-8D82-4648-9C59-20DE5B656C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AEDC677-6EFE-452B-849B-8204F50715B5}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{6511738B-F992-40D5-9DB8-4F9F2F9FB648}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="600">
   <si>
     <t>衝突状態</t>
   </si>
@@ -2256,11 +2256,7 @@
     <t>ゆっくり進む状態で静止から加速へ切り替え目的地を目指しましたが、まれな衝突が発生しました。もし何もしないままでいれば避けられたかもしれない事態に、深い絶望と大きな喪失感が押し寄せました。</t>
   </si>
   <si>
-    <t xml:space="preserve"> /</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>/</t>
+    <t>null</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -3252,8 +3248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726BC851-A1BD-4B16-87C1-C6B05768817B}">
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="61" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -3704,7 +3700,7 @@
         <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>199</v>
@@ -4038,7 +4034,7 @@
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>171</v>
@@ -4384,7 +4380,7 @@
         <v>36</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>202</v>
@@ -4721,7 +4717,7 @@
         <v>15</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>177</v>
@@ -5079,7 +5075,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>183</v>
@@ -5437,7 +5433,7 @@
         <v>29</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>190</v>
@@ -5780,7 +5776,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>192</v>
